--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -5,13 +5,17 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluación uniforme" sheetId="1" r:id="rId1"/>
+    <sheet name="Precios" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hola</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,15 +59,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="0" t="n">
-        <v>100</v>
+    <row r="2" spans="2:2">
+      <c r="B2" s="0" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
